--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsancheg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863CB87C-55AB-498F-A35F-541FC8A9FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
-    <sheet name="Objeto Dominio 1" sheetId="66" r:id="rId3"/>
-    <sheet name="Objeto Dominio 2" sheetId="24" r:id="rId4"/>
-    <sheet name="Objeto Dominio N" sheetId="68" r:id="rId5"/>
+    <sheet name="Cliente" sheetId="66" r:id="rId3"/>
+    <sheet name="CitaReservaServicio" sheetId="68" r:id="rId4"/>
+    <sheet name="CitaReserva" sheetId="24" r:id="rId5"/>
+    <sheet name="Consentimiento" sheetId="69" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,8 +43,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={34DEFF87-85C1-4032-8B7F-9211DDFDB056}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{34DEFF87-85C1-4032-8B7F-9211DDFDB056}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Propio: Es parte del contexto actual
+Impropios: que no hacen parte del contexto
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,24 +72,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Objeto Dominio 1</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio 1</t>
-  </si>
-  <si>
-    <t>Objeto Dominio 2</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio 2</t>
-  </si>
-  <si>
-    <t>Objeto Dominio N</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio N</t>
-  </si>
-  <si>
     <t>&lt;-Volver al inicio</t>
   </si>
   <si>
@@ -172,13 +175,184 @@
   </si>
   <si>
     <t>Reponsabilidad 4</t>
+  </si>
+  <si>
+    <t>TipoObjetoDominio</t>
+  </si>
+  <si>
+    <t>Contextro</t>
+  </si>
+  <si>
+    <t>CitaReserva</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</t>
+  </si>
+  <si>
+    <t>Propio</t>
+  </si>
+  <si>
+    <t>Sucursales</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los clientes</t>
+  </si>
+  <si>
+    <t>CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la reserva del servicio disponible</t>
+  </si>
+  <si>
+    <t>Consentimiento</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del consentimiento</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>NumericoEntero</t>
+  </si>
+  <si>
+    <t>No tiene letras</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada producto por fabricante</t>
+  </si>
+  <si>
+    <t>Alfanumerico</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un producto por fabricante</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Estado de la Reserva</t>
+  </si>
+  <si>
+    <t>Nombre Servicio</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Estado de la reserva</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Autorización</t>
+  </si>
+  <si>
+    <t>Concentimiento</t>
+  </si>
+  <si>
+    <t>Documento de Identificación</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el numero de documento que identifica un cliente</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el numero celular del cliente</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el numero telefonico del cliente</t>
+  </si>
+  <si>
+    <t>Correo Electronico</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>Numero Telefonico</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el correo electronico del cliente</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la direccion del cliente</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la confirmación de la reserva</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un servicio</t>
+  </si>
+  <si>
+    <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de las sucursales del Spa</t>
+  </si>
+  <si>
+    <t>hh:mm</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la hora de la reserva de la cita</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la fecha de la reserva de la cita</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la confirmación de la reserva de la cita</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la autorización del cliente para el procedimiento</t>
+  </si>
+  <si>
+    <t>Cliente unico</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un cliente igual</t>
+  </si>
+  <si>
+    <t>Cita Reserva Servicio unico</t>
+  </si>
+  <si>
+    <t>Cita reserva unico</t>
+  </si>
+  <si>
+    <t>No es posible tener una misma cita reservada a la misma fecha y a la misma hora</t>
+  </si>
+  <si>
+    <t>Consentimiento unico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinación unica que registra el consentimiento por cada procedimiento </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,11 +401,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -467,7 +640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,14 +793,47 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,47 +871,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -732,8 +918,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42741</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89965F91-61C3-4B67-98E7-0805DFFF44BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6880412" y="11206"/>
+          <a:ext cx="9164329" cy="3982006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jhonatan Arley Gomez Gomez" id="{4E8D8996-6892-42E9-9490-F80FB088D912}" userId="S::jhonatan.gomez@wiga.io::6eb4563c-22ba-4bd2-8fe7-ce110aefa2fc" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1027,89 +1268,883 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-03-08T22:51:07.46" personId="{4E8D8996-6892-42E9-9490-F80FB088D912}" id="{34DEFF87-85C1-4032-8B7F-9211DDFDB056}">
+    <text xml:space="preserve">Propio: Es parte del contexto actual
+Impropios: que no hacen parte del contexto
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1">
-      <c r="A4" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>7</v>
+      <c r="C1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="'Objeto Dominio 1'!A1" display="Sucursal" xr:uid="{61A70380-126D-402A-96EE-1C79345CDC54}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="53" t="str">
+        <f>+'Listado Objetos de Dominio'!A2</f>
+        <v>Cliente</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="54" t="str">
+        <f>+'Listado Objetos de Dominio'!B2</f>
+        <v>Objeto de dominio que contiene la informacion de los clientes</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="str">
+        <f>A20</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A21</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f>A22</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A23</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f>+A7</f>
+        <v>Documento de Identificación</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="62"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="26"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:P18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
+    <hyperlink ref="H23" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
+    <hyperlink ref="B12" location="CitaReserva!A1" display="CitaReserva" xr:uid="{148E0A02-D958-4C80-8C9D-7CDCB0960BF4}"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{0D82DA6D-21D4-4A74-B8E7-D4A87DC6AEAE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1135,426 +2170,468 @@
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="53" t="str">
+        <f>+'Listado Objetos de Dominio'!A3</f>
+        <v>CitaReservaServicio</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="54" t="str">
+        <f>+'Listado Objetos de Dominio'!B3</f>
+        <v>Objeto de dominio que contiene la reserva del servicio disponible</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$A$2</f>
-        <v>Objeto Dominio 1</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75" t="str">
-        <f>'Listado Objetos de Dominio'!$B$2</f>
-        <v>Descripción en términos del negocio del objeto de dominio 1</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>60</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="76" t="s">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="17" t="s">
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="79" t="s">
+      <c r="H14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
+      <c r="I14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
+      <c r="P14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
+      <c r="R14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="19" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="19" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
@@ -1563,169 +2640,815 @@
     <mergeCell ref="C17:F17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
+    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="53" t="str">
+        <f>+'Listado Objetos de Dominio'!A5</f>
+        <v>CitaReserva</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="54" t="str">
+        <f>+'Listado Objetos de Dominio'!B5</f>
+        <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A20</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f>A21</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A22</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="38" t="str">
+        <f>+A5</f>
+        <v>Identificador</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="62"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
+    <hyperlink ref="H22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
+    <hyperlink ref="B11" location="CitaReservaServicio!A1" display="CitaReservaServicio" xr:uid="{FDB0F4F6-1B8B-4C3B-9853-7BDF289E3CED}"/>
+    <hyperlink ref="B10" location="Consentimiento!A1" display="Concentimiento" xr:uid="{ABE65BEE-BA78-4A72-B38C-BB7F5FFBCCEA}"/>
+    <hyperlink ref="B9" location="'Listado Objetos de Dominio'!A1" display="Sucursal" xr:uid="{36774BE4-6AAC-4E9F-AA84-28F8F77F11BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205AE43-54AF-4EA5-AE40-EC179C4B8155}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="53" t="str">
+        <f>+'Listado Objetos de Dominio'!A4</f>
+        <v>Consentimiento</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="54" t="str">
+        <f>+'Listado Objetos de Dominio'!B4</f>
+        <v>Objeto de dominio que contiene la informacion del consentimiento</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$A$3</f>
-        <v>Objeto Dominio 2</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75" t="str">
-        <f>'Listado Objetos de Dominio'!$B$3</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>1</v>
@@ -1747,271 +3470,359 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
+      <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
+      <c r="K8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
       <c r="S8" s="28"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1"/>
-    <row r="10" spans="1:20">
-      <c r="A10" s="76" t="s">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="38" t="str">
+        <f>+A8</f>
+        <v>Autorización</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="17" t="s">
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="79" t="s">
+      <c r="H15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
+      <c r="I15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
+      <c r="P15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
+      <c r="R15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2044,497 +3855,17 @@
     <mergeCell ref="O14:P14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
-        <v>Objeto Dominio N</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="75" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v>Descripción en términos del negocio del objeto de dominio N</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="37" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1"/>
-    <row r="10" spans="1:20">
-      <c r="A10" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1"/>
-    <row r="14" spans="1:20">
-      <c r="A14" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O14:P14"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F71E723C-45DC-45F7-B5B1-27B509D7A5BA}"/>
+    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{950ABDC2-7378-4EF7-97DF-9DD7A0348064}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{58FA6EC8-CAA6-49E6-811E-8BBEC96C9F89}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{BF6F1D57-BDFD-4FB8-81BB-3780F398AC31}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{F857F41E-E2AE-4070-8D4B-2B6B7D567024}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{22EACA02-F17C-4299-B264-C6E100F4A689}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{A84892A3-8C15-4EAC-86E7-64EDFB39EB55}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{04AA2763-06A2-4510-A321-DB7FBE4C4F66}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{8D988873-2DE6-4896-9792-422856D74272}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{6F9CC0CB-D7F7-4D97-9FCF-CA595378C5DF}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{55027226-15AF-425C-9FE0-CB109B8E219B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2686,6 +4017,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2694,22 +4031,39 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863CB87C-55AB-498F-A35F-541FC8A9FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D001C8F-E35C-4FC6-BCF5-80729D0322AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="233">
   <si>
     <t>Nombre</t>
   </si>
@@ -165,18 +165,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>TipoObjetoDominio</t>
   </si>
   <si>
@@ -346,13 +334,442 @@
   </si>
   <si>
     <t xml:space="preserve">Combinación unica que registra el consentimiento por cada procedimiento </t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>crear Cliente</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Clientes en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Cliente en el sistema.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Cliente creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Cliente</t>
+  </si>
+  <si>
+    <t>modificar Cliente</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Cliente en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Cliente.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Cliente con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del Cliente</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Cliente no existe.</t>
+  </si>
+  <si>
+    <t>Consultar Cliente</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Cliente registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Cliente.</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Cliente</t>
+  </si>
+  <si>
+    <t>Eliminar Cliente</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un Cliente del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Cliente.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Cliente</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del Cliente</t>
+  </si>
+  <si>
+    <t>Pol-cliente-001</t>
+  </si>
+  <si>
+    <t>No debe existir otro cliente con el mismo id</t>
+  </si>
+  <si>
+    <t>Pol-cliente-002</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo cliente deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Pol-cliente-003</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una sucursal a la cual debe estar asociado el cliente</t>
+  </si>
+  <si>
+    <t>Pol-cliente-005</t>
+  </si>
+  <si>
+    <t>No debe existir otro cliente, a excepcion de que sea el mismo cliente que se esta modificando</t>
+  </si>
+  <si>
+    <t>Pol-cliente-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir el cliente que se esta modificando </t>
+  </si>
+  <si>
+    <t>Pol-cliente-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-cliente-008: </t>
+  </si>
+  <si>
+    <t>Pol-cliente-007</t>
+  </si>
+  <si>
+    <t>Que el usuario exista y no tenga reservas asociadas</t>
+  </si>
+  <si>
+    <t>crear CitaReserva</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos CitaReservas en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo CitaReserva en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-001</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un CitaReserva creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del CitaReserva</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-002</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-003</t>
+  </si>
+  <si>
+    <t>modificar CitaReserva</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un CitaReserva en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un CitaReserva.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-005</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un CitaReserva con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del CitaReserva</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-006</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el CitaReserva no existe.</t>
+  </si>
+  <si>
+    <t>Consultar CitaReserva</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un CitaReserva registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un CitaReserva.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-004</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del CitaReserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-CitaReserva-008: </t>
+  </si>
+  <si>
+    <t>Eliminar CitaReserva</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un CitaReserva del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada CitaReserva.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReserva-007</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el CitaReserva</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del CitaReserva</t>
+  </si>
+  <si>
+    <t>No debe existir otra reserva de la cita con el mismo cliente y horario</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva reserva de la cita deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una sucursal a la cual debe estar asociado la reserva de la cita</t>
+  </si>
+  <si>
+    <t>No debe existir otra reserva de la cita, a excepcion de que sea la misma reserva de la cita que se esta modificando</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva eserva de la cita deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe existir la reserva de la cita que se esta modificando</t>
+  </si>
+  <si>
+    <t>Si se envía parámetros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Que la reserva de la cita exista</t>
+  </si>
+  <si>
+    <t>crear CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos CitaReservaServicios en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo CitaReservaServicio en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-001</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un CitaReservaServicio creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-002</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-003</t>
+  </si>
+  <si>
+    <t>modificar CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un CitaReservaServicio en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un CitaReservaServicio.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-005</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un CitaReservaServicio con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-006</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el CitaReservaServicio no existe.</t>
+  </si>
+  <si>
+    <t>Consultar CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un CitaReservaServicio registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un CitaReservaServicio.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-004</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del CitaReservaServicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-CitaReservaServicio-008: </t>
+  </si>
+  <si>
+    <t>Eliminar CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un CitaReservaServicio del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada CitaReservaServicio.</t>
+  </si>
+  <si>
+    <t>Pol-CitaReservaServicio-007</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del CitaReservaServicio</t>
+  </si>
+  <si>
+    <t>No debe existir otra reserva de la cita del servicio con el mismo cliente y horario</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva reserva de la cita del servicio deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una sucursal a la cual debe estar asociado la reserva de la cita del servicio</t>
+  </si>
+  <si>
+    <t>No debe existir otra reserva de la cita, a excepcion de que sea la misma reserva de la cita del servicio que se esta modificando</t>
+  </si>
+  <si>
+    <t>Debe existir la reserva de la cita del servicio que se esta modificando</t>
+  </si>
+  <si>
+    <t>Que la reserva de la cita del servicio exista</t>
+  </si>
+  <si>
+    <t>crear Consentimiento</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Consentimientos en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Consentimiento en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-001</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Consentimiento creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Consentimiento</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-002</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-003</t>
+  </si>
+  <si>
+    <t>modificar Consentimiento</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Consentimiento en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Consentimiento.</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-005</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Consentimiento con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del Consentimiento</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-006</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Consentimiento no existe.</t>
+  </si>
+  <si>
+    <t>Consultar Consentimiento</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Consentimiento registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Consentimiento.</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-004</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Consentimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-Consentimiento-008: </t>
+  </si>
+  <si>
+    <t>Eliminar Consentimiento</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un Consentimiento del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Consentimiento.</t>
+  </si>
+  <si>
+    <t>Pol-Consentimiento-007</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Consentimiento</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del Consentimiento</t>
+  </si>
+  <si>
+    <t>No debe existir otra consentimiento con el mismo codigo</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo consentimieto deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe de exisitir un cliente a la cual debe estar asociado el consentimiento</t>
+  </si>
+  <si>
+    <t>No debe existir otro consentimiento, a excepcion de que sea el mismo consentimiento que se esta modificando</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo consentimiento deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe existir el consentimiento que se esta modificando</t>
+  </si>
+  <si>
+    <t>Que el consentimiento exista y no tenga clientes con reservas de las citas activas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,14 +817,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +879,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -634,13 +1051,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -697,48 +1277,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,122 +1304,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -892,6 +1337,258 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1320,87 +2017,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A20:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,8 +2127,8 @@
     <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1439,76 +2136,77 @@
     <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="70.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="46" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="47" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los clientes</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1559,29 +2257,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A20</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear Cliente</v>
+      </c>
+      <c r="R4" s="25">
         <f>A21</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A22</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A23</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar Cliente</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1593,37 +2291,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1638,34 +2336,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1680,34 +2378,34 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1721,37 +2419,37 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
+        <v>67</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1765,37 +2463,37 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1806,40 +2504,40 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="84" t="s">
-        <v>74</v>
+      <c r="H10" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
       <c r="K10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1854,34 +2552,34 @@
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
       <c r="K11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1897,17 +2595,17 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="31"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -1922,55 +2620,55 @@
     </row>
     <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="38" t="str">
+        <v>83</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="28" t="str">
         <f>+A7</f>
         <v>Documento de Identificación</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59" t="s">
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59" t="s">
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="62"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -1983,12 +2681,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -1998,114 +2696,303 @@
       <c r="Q19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>35</v>
-      </c>
+    <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="70"/>
+    </row>
+    <row r="22" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="74"/>
       <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="33"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="78"/>
+    </row>
+    <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="84"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="94"/>
+    </row>
+    <row r="25" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="102"/>
+    </row>
+    <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="108"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="R26" s="111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+    </row>
+    <row r="28" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="R28" s="124" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
+  <mergeCells count="39">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:N27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -2115,21 +3002,34 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="C23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H23" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
     <hyperlink ref="B12" location="CitaReserva!A1" display="CitaReserva" xr:uid="{148E0A02-D958-4C80-8C9D-7CDCB0960BF4}"/>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{0D82DA6D-21D4-4A74-B8E7-D4A87DC6AEAE}"/>
+    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{E2E8DC69-9755-4306-8444-F2C1548BD58B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2138,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="N16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +3062,7 @@
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2171,70 +3071,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="46" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>CitaReservaServicio</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="47" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la reserva del servicio disponible</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2285,29 +3185,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A15</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear CitaReservaServicio</v>
+      </c>
+      <c r="R4" s="25">
         <f>A16</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A17</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar CitaReservaServicio</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2319,37 +3219,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2364,34 +3264,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2406,35 +3306,35 @@
       <c r="I7" s="5"/>
       <c r="J7" s="13"/>
       <c r="K7" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2449,51 +3349,51 @@
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="38"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59" t="s">
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="62"/>
+      <c r="R13" s="43"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -2506,12 +3406,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2521,136 +3421,338 @@
       <c r="Q14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>35</v>
-      </c>
+    <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="70"/>
+    </row>
+    <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="74"/>
       <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="78"/>
+    </row>
+    <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="84"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18" s="86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="94"/>
+    </row>
+    <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="R20" s="102"/>
+    </row>
+    <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="108"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q21" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="111" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="119"/>
+    </row>
+    <row r="23" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="121"/>
+      <c r="C23" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="R23" s="124" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="39">
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="R15:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{A578393D-BDA7-4294-ABDE-7FC11F09E9DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2659,11 +3761,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="H1" zoomScale="74" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="A19:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,9 +3776,9 @@
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -2684,76 +3786,77 @@
     <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="46" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>CitaReserva</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="47" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2804,29 +3907,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A19</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear CitaReserva</v>
+      </c>
+      <c r="R4" s="25">
         <f>A20</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A21</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A22</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar CitaReserva</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2838,37 +3941,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2880,39 +3983,39 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2924,39 +4027,39 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2971,34 +4074,34 @@
       <c r="I8" s="5"/>
       <c r="J8" s="13"/>
       <c r="K8" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
+        <v>81</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3014,17 +4117,17 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="31"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3040,17 +4143,17 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="31"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3066,18 +4169,18 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="31"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -3092,55 +4195,55 @@
     </row>
     <row r="15" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="38" t="str">
+        <v>87</v>
+      </c>
+      <c r="C15" s="28" t="str">
         <f>+A5</f>
         <v>Identificador</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59" t="s">
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59" t="s">
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="62"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -3153,12 +4256,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -3168,103 +4271,320 @@
       <c r="Q18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="27"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+    <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58" t="s">
         <v>35</v>
       </c>
+      <c r="H19" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="R19" s="61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="70"/>
+    </row>
+    <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="73"/>
       <c r="L21" s="74"/>
       <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="78"/>
+    </row>
+    <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="84"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="R22" s="86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="94"/>
+    </row>
+    <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="R24" s="102"/>
+    </row>
+    <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="108"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" s="111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="119"/>
+    </row>
+    <row r="27" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="121"/>
+      <c r="C27" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="P27" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="R27" s="124" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
+  <mergeCells count="39">
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="R19:R21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3274,33 +4594,18 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
     <hyperlink ref="B11" location="CitaReservaServicio!A1" display="CitaReservaServicio" xr:uid="{FDB0F4F6-1B8B-4C3B-9853-7BDF289E3CED}"/>
     <hyperlink ref="B10" location="Consentimiento!A1" display="Concentimiento" xr:uid="{ABE65BEE-BA78-4A72-B38C-BB7F5FFBCCEA}"/>
     <hyperlink ref="B9" location="'Listado Objetos de Dominio'!A1" display="Sucursal" xr:uid="{36774BE4-6AAC-4E9F-AA84-28F8F77F11BB}"/>
+    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{79C46A2D-09CF-4047-B7CC-3D8A84F73182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3308,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205AE43-54AF-4EA5-AE40-EC179C4B8155}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,77 +4637,77 @@
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" style="1" customWidth="1"/>
     <col min="18" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="46" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Consentimiento</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="47" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion del consentimiento</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3453,29 +4758,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear Consentimiento</v>
+      </c>
+      <c r="R4" s="25">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A18</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A19</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar Consentimiento</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3487,37 +4792,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3532,34 +4837,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3574,34 +4879,34 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3616,35 +4921,35 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="K8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -3659,56 +4964,56 @@
     </row>
     <row r="12" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="38" t="str">
+        <v>89</v>
+      </c>
+      <c r="C12" s="28" t="str">
         <f>+A8</f>
         <v>Autorización</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59" t="s">
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="62"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -3721,12 +5026,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -3736,114 +5041,303 @@
       <c r="Q15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>35</v>
-      </c>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="70"/>
+    </row>
+    <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="74"/>
       <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="78"/>
+    </row>
+    <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="84"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="R19" s="86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="94"/>
+    </row>
+    <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q21" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="R21" s="102"/>
+    </row>
+    <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="108"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="P22" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q22" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="119"/>
+    </row>
+    <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="121"/>
+      <c r="C24" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="P24" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="R24" s="124" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
+  <mergeCells count="39">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:N23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3853,19 +5347,32 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F71E723C-45DC-45F7-B5B1-27B509D7A5BA}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{950ABDC2-7378-4EF7-97DF-9DD7A0348064}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{58FA6EC8-CAA6-49E6-811E-8BBEC96C9F89}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{BF6F1D57-BDFD-4FB8-81BB-3780F398AC31}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{F857F41E-E2AE-4070-8D4B-2B6B7D567024}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{22EACA02-F17C-4299-B264-C6E100F4A689}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{A84892A3-8C15-4EAC-86E7-64EDFB39EB55}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{04AA2763-06A2-4510-A321-DB7FBE4C4F66}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{8D988873-2DE6-4896-9792-422856D74272}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{6F9CC0CB-D7F7-4D97-9FCF-CA595378C5DF}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{55027226-15AF-425C-9FE0-CB109B8E219B}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{739DC829-63F9-47E2-AF03-F5C79CA9F486}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3873,6 +5380,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -4016,22 +5538,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4049,23 +5573,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D001C8F-E35C-4FC6-BCF5-80729D0322AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF06C5EB-F0EC-43A4-AF39-C69F8E647D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -1338,48 +1338,141 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,66 +1482,48 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,6 +1533,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,127 +1554,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1619,23 +1619,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>42741</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>183212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89965F91-61C3-4B67-98E7-0805DFFF44BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC35BEB9-EDBD-94F0-EA56-C54A90417614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,8 +1651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6880412" y="11206"/>
-          <a:ext cx="9164329" cy="3982006"/>
+          <a:off x="3675530" y="22411"/>
+          <a:ext cx="7659169" cy="4496427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,70 +2143,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="70" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los clientes</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2601,11 +2601,11 @@
       <c r="T12" s="23"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -2631,44 +2631,44 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42" t="s">
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42" t="s">
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42" t="s">
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="43"/>
+      <c r="R18" s="79"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -2681,12 +2681,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -2701,118 +2701,118 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58" t="s">
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="60" t="s">
+      <c r="J20" s="98"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="R20" s="61" t="s">
+      <c r="R20" s="101" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="60" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="69" t="s">
+      <c r="P21" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="70"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="102"/>
     </row>
     <row r="22" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="60" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="60" t="s">
+      <c r="P22" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="Q22" s="60" t="s">
+      <c r="Q22" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="78"/>
+      <c r="R22" s="103"/>
     </row>
     <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81" t="s">
+      <c r="B23" s="105"/>
+      <c r="C23" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="84" t="s">
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="84" t="s">
+      <c r="I23" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
       <c r="O23" s="32" t="s">
         <v>120</v>
       </c>
@@ -2822,25 +2822,25 @@
       <c r="Q23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="86" t="s">
+      <c r="R23" s="50" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="91"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
       <c r="O24" s="32" t="s">
         <v>116</v>
       </c>
@@ -2850,23 +2850,23 @@
       <c r="Q24" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="94"/>
+      <c r="R24" s="51"/>
     </row>
     <row r="25" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="99"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="118"/>
       <c r="O25" s="32" t="s">
         <v>122</v>
       </c>
@@ -2876,110 +2876,133 @@
       <c r="Q25" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="R25" s="102"/>
+      <c r="R25" s="52"/>
     </row>
     <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="109" t="s">
+      <c r="H26" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="108" t="s">
+      <c r="I26" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="108"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="110" t="s">
+      <c r="J26" s="63"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="110" t="s">
+      <c r="P26" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="Q26" s="108" t="s">
+      <c r="Q26" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="R26" s="111" t="s">
+      <c r="R26" s="67" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="110" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="110" t="s">
+      <c r="P27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="68"/>
     </row>
     <row r="28" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>111</v>
       </c>
       <c r="J28" s="31"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="123" t="s">
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="P28" s="123" t="s">
+      <c r="P28" s="45" t="s">
         <v>127</v>
       </c>
       <c r="Q28" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="R28" s="124" t="s">
+      <c r="R28" s="46" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="K28:N28"/>
@@ -2993,32 +3016,9 @@
     <mergeCell ref="K26:N27"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="R20:R22"/>
     <mergeCell ref="A23:B25"/>
     <mergeCell ref="C23:F25"/>
     <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3040,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="N16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R15" sqref="R15:R17"/>
     </sheetView>
   </sheetViews>
@@ -3071,70 +3071,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="70" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>CitaReservaServicio</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la reserva del servicio disponible</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3330,11 +3330,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3356,44 +3356,44 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42" t="s">
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42" t="s">
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42" t="s">
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="43"/>
+      <c r="R13" s="79"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -3406,12 +3406,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3426,118 +3426,118 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58" t="s">
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="60" t="s">
+      <c r="J15" s="98"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="60" t="s">
+      <c r="P15" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q15" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="R15" s="61" t="s">
+      <c r="R15" s="101" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="60" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="69" t="s">
+      <c r="P16" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="70"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="102"/>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="60" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="78"/>
+      <c r="R17" s="103"/>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81" t="s">
+      <c r="B18" s="105"/>
+      <c r="C18" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84" t="s">
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="84" t="s">
+      <c r="I18" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="112"/>
       <c r="O18" s="32" t="s">
         <v>175</v>
       </c>
@@ -3547,25 +3547,25 @@
       <c r="Q18" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="86" t="s">
+      <c r="R18" s="50" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="91"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="115"/>
       <c r="O19" s="32" t="s">
         <v>170</v>
       </c>
@@ -3575,23 +3575,23 @@
       <c r="Q19" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R19" s="94"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
       <c r="O20" s="32" t="s">
         <v>178</v>
       </c>
@@ -3601,110 +3601,137 @@
       <c r="Q20" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="R20" s="102"/>
+      <c r="R20" s="52"/>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="109" t="s">
+      <c r="H21" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="108" t="s">
+      <c r="I21" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="J21" s="108"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="110" t="s">
+      <c r="J21" s="63"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="Q21" s="108" t="s">
+      <c r="Q21" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="67" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="110" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="110" t="s">
+      <c r="P22" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="119"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="68"/>
     </row>
     <row r="23" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="31"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="123" t="s">
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="P23" s="123" t="s">
+      <c r="P23" s="45" t="s">
         <v>197</v>
       </c>
       <c r="Q23" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="R23" s="124" t="s">
+      <c r="R23" s="46" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:N22"/>
     <mergeCell ref="Q21:Q22"/>
@@ -3717,33 +3744,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:N17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3763,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="74" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H27" sqref="A19:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -3793,70 +3793,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="70" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>CitaReserva</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4176,11 +4176,11 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -4206,44 +4206,44 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42" t="s">
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42" t="s">
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42" t="s">
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="43"/>
+      <c r="R17" s="79"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -4256,12 +4256,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -4276,118 +4276,118 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="60" t="s">
+      <c r="J19" s="98"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="60" t="s">
+      <c r="P19" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="Q19" s="60" t="s">
+      <c r="Q19" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="R19" s="61" t="s">
+      <c r="R19" s="101" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="60" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="69" t="s">
+      <c r="P20" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="70"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="102"/>
     </row>
     <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="60" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="78"/>
+      <c r="R21" s="103"/>
     </row>
     <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81" t="s">
+      <c r="B22" s="105"/>
+      <c r="C22" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84" t="s">
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="84" t="s">
+      <c r="I22" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="112"/>
       <c r="O22" s="32" t="s">
         <v>139</v>
       </c>
@@ -4397,25 +4397,25 @@
       <c r="Q22" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="86" t="s">
+      <c r="R22" s="50" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="115"/>
       <c r="O23" s="32" t="s">
         <v>134</v>
       </c>
@@ -4425,23 +4425,23 @@
       <c r="Q23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R23" s="94"/>
+      <c r="R23" s="51"/>
     </row>
     <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="99"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="32" t="s">
         <v>142</v>
       </c>
@@ -4451,110 +4451,137 @@
       <c r="Q24" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="R24" s="102"/>
+      <c r="R24" s="52"/>
     </row>
     <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="105" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="109" t="s">
+      <c r="H25" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="108" t="s">
+      <c r="I25" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="108"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="110" t="s">
+      <c r="J25" s="63"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="110" t="s">
+      <c r="P25" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="Q25" s="108" t="s">
+      <c r="Q25" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="R25" s="111" t="s">
+      <c r="R25" s="67" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="110" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="110" t="s">
+      <c r="P26" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="119"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="68"/>
     </row>
     <row r="27" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>152</v>
       </c>
       <c r="J27" s="31"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="123" t="s">
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P27" s="123" t="s">
+      <c r="P27" s="45" t="s">
         <v>163</v>
       </c>
       <c r="Q27" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="R27" s="124" t="s">
+      <c r="R27" s="46" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="R22:R24"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:N26"/>
     <mergeCell ref="Q25:Q26"/>
@@ -4567,33 +4594,6 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -4615,7 +4615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205AE43-54AF-4EA5-AE40-EC179C4B8155}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -4644,70 +4644,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="70" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Consentimiento</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="71" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion del consentimiento</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4945,11 +4945,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -4976,44 +4976,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="76"/>
+      <c r="C14" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42" t="s">
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42" t="s">
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42" t="s">
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="43"/>
+      <c r="R14" s="79"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -5026,12 +5026,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -5046,118 +5046,118 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="60" t="s">
+      <c r="J16" s="98"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="R16" s="61" t="s">
+      <c r="R16" s="101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="60" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="P17" s="69" t="s">
+      <c r="P17" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="70"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="102"/>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="60" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="103"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84" t="s">
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="112"/>
       <c r="O19" s="32" t="s">
         <v>209</v>
       </c>
@@ -5167,25 +5167,25 @@
       <c r="Q19" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="R19" s="86" t="s">
+      <c r="R19" s="50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
       <c r="O20" s="32" t="s">
         <v>204</v>
       </c>
@@ -5195,23 +5195,23 @@
       <c r="Q20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="94"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="99"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
       <c r="O21" s="32" t="s">
         <v>212</v>
       </c>
@@ -5221,110 +5221,133 @@
       <c r="Q21" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="R21" s="102"/>
+      <c r="R21" s="52"/>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="108" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="109" t="s">
+      <c r="H22" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="108" t="s">
+      <c r="I22" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="110" t="s">
+      <c r="J22" s="63"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="110" t="s">
+      <c r="P22" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="Q22" s="108" t="s">
+      <c r="Q22" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="111" t="s">
+      <c r="R22" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="110" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="P23" s="110" t="s">
+      <c r="P23" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="119"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="68"/>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>222</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="123" t="s">
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="P24" s="123" t="s">
+      <c r="P24" s="45" t="s">
         <v>232</v>
       </c>
       <c r="Q24" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="R24" s="124" t="s">
+      <c r="R24" s="46" t="s">
         <v>225</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="K24:N24"/>
@@ -5338,32 +5361,9 @@
     <mergeCell ref="K22:N23"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="R22:R23"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="R16:R18"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:F21"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F71E723C-45DC-45F7-B5B1-27B509D7A5BA}"/>
@@ -5380,21 +5380,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -5538,24 +5523,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5573,6 +5556,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF06C5EB-F0EC-43A4-AF39-C69F8E647D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AF06C5EB-F0EC-43A4-AF39-C69F8E647D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E197AC-1891-43DB-8003-C536D17E7721}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView minimized="1" xWindow="10440" yWindow="30" windowWidth="7920" windowHeight="10770" tabRatio="671" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="235">
   <si>
     <t>Nombre</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>Que el consentimiento exista y no tenga clientes con reservas de las citas activas</t>
+  </si>
+  <si>
+    <t>Valor de verdad</t>
+  </si>
+  <si>
+    <t>Valor de Verdad</t>
   </si>
 </sst>
 </file>
@@ -1356,70 +1362,130 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1443,88 +1509,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,51 +1594,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1671,9 +1677,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1711,7 +1717,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1817,7 +1823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1959,7 +1965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2143,70 +2149,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="90" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los clientes</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2601,11 +2607,11 @@
       <c r="T12" s="23"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -2631,44 +2637,44 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76" t="s">
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76" t="s">
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76" t="s">
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="79"/>
+      <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -2681,12 +2687,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -2701,30 +2707,30 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="86" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="95" t="s">
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
       <c r="O20" s="42" t="s">
         <v>114</v>
       </c>
@@ -2734,25 +2740,25 @@
       <c r="Q20" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="R20" s="101" t="s">
+      <c r="R20" s="86" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
       <c r="O21" s="42" t="s">
         <v>116</v>
       </c>
@@ -2760,23 +2766,23 @@
         <v>117</v>
       </c>
       <c r="Q21" s="42"/>
-      <c r="R21" s="102"/>
+      <c r="R21" s="87"/>
     </row>
     <row r="22" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
       <c r="O22" s="42" t="s">
         <v>118</v>
       </c>
@@ -2786,33 +2792,33 @@
       <c r="Q22" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="103"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="110" t="s">
+      <c r="B23" s="120"/>
+      <c r="C23" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="119" t="s">
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="119" t="s">
+      <c r="I23" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="119"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
       <c r="O23" s="32" t="s">
         <v>120</v>
       </c>
@@ -2822,25 +2828,25 @@
       <c r="Q23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="50" t="s">
+      <c r="R23" s="100" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
       <c r="O24" s="32" t="s">
         <v>116</v>
       </c>
@@ -2850,23 +2856,23 @@
       <c r="Q24" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="51"/>
+      <c r="R24" s="101"/>
     </row>
     <row r="25" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="118"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="32" t="s">
         <v>122</v>
       </c>
@@ -2876,81 +2882,81 @@
       <c r="Q25" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="R25" s="52"/>
+      <c r="R25" s="102"/>
     </row>
     <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="63" t="s">
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="109"/>
       <c r="O26" s="43" t="s">
         <v>124</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="Q26" s="63" t="s">
+      <c r="Q26" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="R26" s="67" t="s">
+      <c r="R26" s="117" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="62"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="112"/>
       <c r="O27" s="43" t="s">
         <v>125</v>
       </c>
       <c r="P27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="68"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="118"/>
     </row>
     <row r="28" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
       <c r="G28" s="31" t="s">
         <v>91</v>
       </c>
@@ -2961,10 +2967,10 @@
         <v>111</v>
       </c>
       <c r="J28" s="31"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
       <c r="O28" s="45" t="s">
         <v>126</v>
       </c>
@@ -2980,29 +2986,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:P18"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="K28:N28"/>
@@ -3019,6 +3002,29 @@
     <mergeCell ref="A23:B25"/>
     <mergeCell ref="C23:F25"/>
     <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="R20:R22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3040,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R15" sqref="R15:R17"/>
     </sheetView>
   </sheetViews>
@@ -3071,70 +3077,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="90" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>CitaReservaServicio</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la reserva del servicio disponible</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3330,11 +3336,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3356,44 +3362,44 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76" t="s">
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76" t="s">
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76" t="s">
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="79"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -3406,12 +3412,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3426,30 +3432,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="95" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="95" t="s">
+      <c r="I15" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="88"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
       <c r="O15" s="42" t="s">
         <v>167</v>
       </c>
@@ -3459,25 +3465,25 @@
       <c r="Q15" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="R15" s="101" t="s">
+      <c r="R15" s="86" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="91"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="42" t="s">
         <v>170</v>
       </c>
@@ -3485,23 +3491,23 @@
         <v>193</v>
       </c>
       <c r="Q16" s="42"/>
-      <c r="R16" s="102"/>
+      <c r="R16" s="87"/>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="94"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="42" t="s">
         <v>171</v>
       </c>
@@ -3511,33 +3517,33 @@
       <c r="Q17" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="103"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="110" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="119" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="119" t="s">
+      <c r="I18" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="J18" s="119"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="112"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
       <c r="O18" s="32" t="s">
         <v>175</v>
       </c>
@@ -3547,25 +3553,25 @@
       <c r="Q18" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="50" t="s">
+      <c r="R18" s="100" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="32" t="s">
         <v>170</v>
       </c>
@@ -3575,23 +3581,23 @@
       <c r="Q19" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R19" s="51"/>
+      <c r="R19" s="101"/>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="118"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
       <c r="O20" s="32" t="s">
         <v>178</v>
       </c>
@@ -3601,81 +3607,81 @@
       <c r="Q20" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="R20" s="52"/>
+      <c r="R20" s="102"/>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="63" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="43" t="s">
         <v>183</v>
       </c>
       <c r="P21" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="Q21" s="63" t="s">
+      <c r="Q21" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="67" t="s">
+      <c r="R21" s="117" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="62"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="112"/>
       <c r="O22" s="43" t="s">
         <v>185</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="68"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="118"/>
     </row>
     <row r="23" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="31" t="s">
         <v>91</v>
       </c>
@@ -3686,10 +3692,10 @@
         <v>188</v>
       </c>
       <c r="J23" s="31"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="45" t="s">
         <v>189</v>
       </c>
@@ -3705,6 +3711,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
@@ -3719,31 +3748,8 @@
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:N17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:N22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3764,8 +3770,8 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="A19:XFD27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,70 +3799,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="90" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>CitaReserva</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4059,13 +4065,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4176,11 +4182,11 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -4206,44 +4212,44 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76" t="s">
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76" t="s">
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76" t="s">
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="79"/>
+      <c r="R17" s="63"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -4256,12 +4262,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="78" t="s">
+      <c r="K18" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -4276,30 +4282,30 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="95" t="s">
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="H19" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="95" t="s">
+      <c r="I19" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="88"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="42" t="s">
         <v>131</v>
       </c>
@@ -4309,25 +4315,25 @@
       <c r="Q19" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="R19" s="101" t="s">
+      <c r="R19" s="86" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="42" t="s">
         <v>134</v>
       </c>
@@ -4335,23 +4341,23 @@
         <v>157</v>
       </c>
       <c r="Q20" s="42"/>
-      <c r="R20" s="102"/>
+      <c r="R20" s="87"/>
     </row>
     <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="94"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="79"/>
       <c r="O21" s="42" t="s">
         <v>135</v>
       </c>
@@ -4361,33 +4367,33 @@
       <c r="Q21" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="103"/>
+      <c r="R21" s="88"/>
     </row>
     <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="110" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="119" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="122" t="s">
+      <c r="H22" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="119" t="s">
+      <c r="I22" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="119"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
       <c r="O22" s="32" t="s">
         <v>139</v>
       </c>
@@ -4397,25 +4403,25 @@
       <c r="Q22" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="50" t="s">
+      <c r="R22" s="100" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58"/>
       <c r="O23" s="32" t="s">
         <v>134</v>
       </c>
@@ -4425,23 +4431,23 @@
       <c r="Q23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R23" s="51"/>
+      <c r="R23" s="101"/>
     </row>
     <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
       <c r="O24" s="32" t="s">
         <v>142</v>
       </c>
@@ -4451,81 +4457,81 @@
       <c r="Q24" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="R24" s="52"/>
+      <c r="R24" s="102"/>
     </row>
     <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="63" t="s">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="59"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="109"/>
       <c r="O25" s="43" t="s">
         <v>147</v>
       </c>
       <c r="P25" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="Q25" s="63" t="s">
+      <c r="Q25" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="R25" s="67" t="s">
+      <c r="R25" s="117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="62"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="112"/>
       <c r="O26" s="43" t="s">
         <v>149</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="68"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="118"/>
     </row>
     <row r="27" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="31" t="s">
         <v>91</v>
       </c>
@@ -4536,10 +4542,10 @@
         <v>152</v>
       </c>
       <c r="J27" s="31"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
       <c r="O27" s="45" t="s">
         <v>153</v>
       </c>
@@ -4555,6 +4561,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="R19:R21"/>
@@ -4569,31 +4598,8 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="K19:N21"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:N26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -4615,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205AE43-54AF-4EA5-AE40-EC179C4B8155}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="I9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,70 +4650,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="90" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Consentimiento</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion del consentimiento</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4906,13 +4912,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4945,11 +4951,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -4976,44 +4982,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76" t="s">
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76" t="s">
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="79"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -5026,12 +5032,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="78" t="s">
+      <c r="K15" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -5046,30 +5052,30 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="95" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="98"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="88"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
       <c r="O16" s="42" t="s">
         <v>201</v>
       </c>
@@ -5079,25 +5085,25 @@
       <c r="Q16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="R16" s="101" t="s">
+      <c r="R16" s="86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="42" t="s">
         <v>204</v>
       </c>
@@ -5105,23 +5111,23 @@
         <v>227</v>
       </c>
       <c r="Q17" s="42"/>
-      <c r="R17" s="102"/>
+      <c r="R17" s="87"/>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
       <c r="O18" s="42" t="s">
         <v>205</v>
       </c>
@@ -5131,33 +5137,33 @@
       <c r="Q18" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="103"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="110" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="119" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="122" t="s">
+      <c r="H19" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="119" t="s">
+      <c r="I19" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="119"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="112"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
       <c r="O19" s="32" t="s">
         <v>209</v>
       </c>
@@ -5167,25 +5173,25 @@
       <c r="Q19" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="100" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
       <c r="O20" s="32" t="s">
         <v>204</v>
       </c>
@@ -5195,23 +5201,23 @@
       <c r="Q20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="51"/>
+      <c r="R20" s="101"/>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
       <c r="O21" s="32" t="s">
         <v>212</v>
       </c>
@@ -5221,81 +5227,81 @@
       <c r="Q21" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="R21" s="52"/>
+      <c r="R21" s="102"/>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="63" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="43" t="s">
         <v>217</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="Q22" s="63" t="s">
+      <c r="Q22" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="67" t="s">
+      <c r="R22" s="117" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
       <c r="O23" s="43" t="s">
         <v>219</v>
       </c>
       <c r="P23" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="68"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="118"/>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="31" t="s">
         <v>91</v>
       </c>
@@ -5306,10 +5312,10 @@
         <v>222</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="45" t="s">
         <v>223</v>
       </c>
@@ -5325,29 +5331,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="K24:N24"/>
@@ -5364,6 +5347,29 @@
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:F21"/>
     <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F71E723C-45DC-45F7-B5B1-27B509D7A5BA}"/>
@@ -5380,6 +5386,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -5523,22 +5544,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5556,23 +5579,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-CitaReserva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AF06C5EB-F0EC-43A4-AF39-C69F8E647D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E197AC-1891-43DB-8003-C536D17E7721}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4F41B-9C2B-41E5-99CD-1AB6729B38AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10440" yWindow="30" windowWidth="7920" windowHeight="10770" tabRatio="671" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="205">
   <si>
     <t>Nombre</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Telefono</t>
   </si>
   <si>
-    <t>Dirección</t>
-  </si>
-  <si>
     <t>Estado de la Reserva</t>
   </si>
   <si>
@@ -267,27 +264,6 @@
     <t>Atributo que contiene el numero de documento que identifica un cliente</t>
   </si>
   <si>
-    <t>Atributo que contiene el numero celular del cliente</t>
-  </si>
-  <si>
-    <t>Atributo que contiene el numero telefonico del cliente</t>
-  </si>
-  <si>
-    <t>Correo Electronico</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>Numero Telefonico</t>
-  </si>
-  <si>
-    <t>Atributo que contiene el correo electronico del cliente</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la direccion del cliente</t>
-  </si>
-  <si>
     <t>Atributo que contiene la confirmación de la reserva</t>
   </si>
   <si>
@@ -315,12 +291,6 @@
     <t>Atributo que contiene la autorización del cliente para el procedimiento</t>
   </si>
   <si>
-    <t>Cliente unico</t>
-  </si>
-  <si>
-    <t>No es posible tener mas de un cliente igual</t>
-  </si>
-  <si>
     <t>Cita Reserva Servicio unico</t>
   </si>
   <si>
@@ -348,108 +318,6 @@
     <t>El usuario debe estar permitido para consultar</t>
   </si>
   <si>
-    <t>crear Cliente</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de agregar nuevos Clientes en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Cliente en el sistema.</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un Cliente creado con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Cancelar la creacion del Cliente</t>
-  </si>
-  <si>
-    <t>modificar Cliente</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Cliente en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Cliente.</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un Cliente con el mismo nombre</t>
-  </si>
-  <si>
-    <t>cancelar la modificacion del Cliente</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que el Cliente no existe.</t>
-  </si>
-  <si>
-    <t>Consultar Cliente</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Cliente registrado en el sistema.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Cliente.</t>
-  </si>
-  <si>
-    <t>Cancelar Consulta del Cliente</t>
-  </si>
-  <si>
-    <t>Eliminar Cliente</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de eliminar un Cliente del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
-  </si>
-  <si>
-    <t>Parametro que hace unico a cada Cliente.</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Cliente</t>
-  </si>
-  <si>
-    <t>cancelar la Eliminacion del Cliente</t>
-  </si>
-  <si>
-    <t>Pol-cliente-001</t>
-  </si>
-  <si>
-    <t>No debe existir otro cliente con el mismo id</t>
-  </si>
-  <si>
-    <t>Pol-cliente-002</t>
-  </si>
-  <si>
-    <t>Los datos del nuevo cliente deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
-  </si>
-  <si>
-    <t>Pol-cliente-003</t>
-  </si>
-  <si>
-    <t>Debe de exisitir una sucursal a la cual debe estar asociado el cliente</t>
-  </si>
-  <si>
-    <t>Pol-cliente-005</t>
-  </si>
-  <si>
-    <t>No debe existir otro cliente, a excepcion de que sea el mismo cliente que se esta modificando</t>
-  </si>
-  <si>
-    <t>Pol-cliente-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe existir el cliente que se esta modificando </t>
-  </si>
-  <si>
-    <t>Pol-cliente-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pol-cliente-008: </t>
-  </si>
-  <si>
-    <t>Pol-cliente-007</t>
-  </si>
-  <si>
-    <t>Que el usuario exista y no tenga reservas asociadas</t>
-  </si>
-  <si>
     <t>crear CitaReserva</t>
   </si>
   <si>
@@ -769,13 +637,55 @@
   </si>
   <si>
     <t>Valor de Verdad</t>
+  </si>
+  <si>
+    <t>Numerico Entero</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada cliente</t>
+  </si>
+  <si>
+    <t>Solo letras sin epacios y sin tildes</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre de un cliente</t>
+  </si>
+  <si>
+    <t>solo numeros</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el telefono del cliente</t>
+  </si>
+  <si>
+    <t>CorreoElectronico</t>
+  </si>
+  <si>
+    <t>Formato de correo electronico valido (nombre123@indicadordelcorreo.dominio) (pepito49@gmail.com)</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la infromacion del correo electronico de un cliente</t>
+  </si>
+  <si>
+    <t>NumeroDocumento</t>
+  </si>
+  <si>
+    <t>Solo numeros, con o sin guiones</t>
+  </si>
+  <si>
+    <t>Atributo que representa el numero o la serie del documento</t>
+  </si>
+  <si>
+    <t>TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Genero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,8 +733,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,8 +814,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1220,13 +1149,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1341,9 +1301,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,13 +1319,115 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,105 +1439,111 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1488,119 +1553,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{8B4D1215-21C8-43CA-9CB9-4D6EC05785D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1625,23 +1592,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666699</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137338</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572962</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC35BEB9-EDBD-94F0-EA56-C54A90417614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544848A2-C3EF-4416-944A-3CA33A1E324A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,8 +1624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3675530" y="22411"/>
-          <a:ext cx="7659169" cy="4496427"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10478962" cy="5382376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,10 +2061,10 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>39</v>
@@ -2120,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A20:XFD28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2100,7 @@
     <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2149,70 +2116,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="87" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="88" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los clientes</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2263,21 +2230,21 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="27" t="str">
-        <f>A20</f>
-        <v>crear Cliente</v>
-      </c>
-      <c r="R4" s="25">
-        <f>A21</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="26">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A23</f>
-        <v>modificar Cliente</v>
+      <c r="Q4" s="27" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="25" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S4" s="26" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2285,20 +2252,16 @@
         <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="J5" s="13"/>
       <c r="K5" s="12" t="s">
         <v>49</v>
       </c>
@@ -2315,7 +2278,7 @@
         <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="20"/>
@@ -2324,7 +2287,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>52</v>
@@ -2333,12 +2296,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
@@ -2357,7 +2322,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="20"/>
@@ -2366,21 +2331,23 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
@@ -2399,51 +2366,51 @@
         <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="20"/>
       <c r="S7" s="22"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="125">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="D8" s="125">
+        <v>50</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>67</v>
+      <c r="N8" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="126" t="s">
+        <v>199</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="20"/>
@@ -2451,43 +2418,39 @@
       <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="A9" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>68</v>
+      <c r="O9" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="126" t="s">
+        <v>202</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="20"/>
@@ -2496,43 +2459,25 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>40</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="20"/>
       <c r="S10" s="22"/>
@@ -2540,41 +2485,25 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>40</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="20"/>
       <c r="S11" s="22"/>
@@ -2606,425 +2535,21 @@
       <c r="S12" s="22"/>
       <c r="T12" s="23"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="28" t="str">
-        <f>+A7</f>
-        <v>Documento de Identificación</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="63"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" s="86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="87"/>
-    </row>
-    <row r="22" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="88"/>
-    </row>
-    <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="R23" s="100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="101"/>
-    </row>
-    <row r="25" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="102"/>
-    </row>
-    <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="113"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="R26" s="117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="P27" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="118"/>
-    </row>
-    <row r="28" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q28" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="R28" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="94.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="94.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="G23:G25"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="R20:R22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3034,11 +2559,11 @@
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
     <hyperlink ref="B12" location="CitaReserva!A1" display="CitaReserva" xr:uid="{148E0A02-D958-4C80-8C9D-7CDCB0960BF4}"/>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{0D82DA6D-21D4-4A74-B8E7-D4A87DC6AEAE}"/>
-    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{E2E8DC69-9755-4306-8444-F2C1548BD58B}"/>
+    <hyperlink ref="B10" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{89940F87-9719-4D9B-957F-CC3096EFE938}"/>
+    <hyperlink ref="B11" location="Genero!A1" display="Genero" xr:uid="{8CDB6F66-FA45-409A-A238-2D29BAEB3544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3077,70 +2602,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="87" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>CitaReservaServicio</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="88" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la reserva del servicio disponible</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3252,7 +2777,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>52</v>
@@ -3285,7 +2810,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="20"/>
@@ -3294,7 +2819,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>52</v>
@@ -3327,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="20"/>
@@ -3336,11 +2861,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3355,51 +2880,51 @@
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62" t="s">
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62" t="s">
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62" t="s">
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="63"/>
+      <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -3412,12 +2937,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3432,308 +2957,285 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="80" t="s">
+      <c r="A15" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="R15" s="86" t="s">
-        <v>169</v>
+      <c r="I15" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="114"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="121" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="P16" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="87"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="122"/>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="88"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="123"/>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="50" t="s">
+      <c r="A18" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
+      <c r="I18" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="83"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
       <c r="O18" s="32" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="R18" s="100" t="s">
-        <v>177</v>
+        <v>132</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="32" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="101"/>
+        <v>80</v>
+      </c>
+      <c r="R19" s="50"/>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="82"/>
       <c r="O20" s="32" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="R20" s="102"/>
+        <v>135</v>
+      </c>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="107" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="115" t="s">
+      <c r="A21" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="113"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q21" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="117" t="s">
-        <v>184</v>
+      <c r="I21" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="66" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="118"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="67"/>
     </row>
     <row r="23" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="A23" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="43" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="J23" s="31"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="P23" s="45" t="s">
-        <v>197</v>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="R23" s="46" t="s">
-        <v>191</v>
+        <v>146</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:N22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="G15:G17"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
@@ -3750,6 +3252,29 @@
     <mergeCell ref="K15:N17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3799,70 +3324,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="87" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>CitaReserva</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="88" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3974,10 +3499,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3989,7 +3514,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -4009,7 +3534,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="20"/>
@@ -4018,7 +3543,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>52</v>
@@ -4033,7 +3558,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
@@ -4053,7 +3578,7 @@
         <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="20"/>
@@ -4062,10 +3587,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -4095,7 +3620,7 @@
         <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="20"/>
@@ -4104,10 +3629,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4133,7 +3658,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4182,11 +3707,11 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -4201,10 +3726,10 @@
     </row>
     <row r="15" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>+A5</f>
@@ -4212,44 +3737,44 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62" t="s">
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62" t="s">
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62" t="s">
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="63"/>
+      <c r="R17" s="120"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -4262,12 +3787,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -4282,308 +3807,285 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="80" t="s">
+      <c r="A19" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="97"/>
+      <c r="C19" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="83"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="R19" s="86" t="s">
-        <v>133</v>
+      <c r="I19" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="114"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="121" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="87"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="122"/>
     </row>
     <row r="21" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q21" s="42" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q21" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="123"/>
+    </row>
+    <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="83"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="88"/>
-    </row>
-    <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="47" t="s">
+      <c r="P23" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="51"/>
+    </row>
+    <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="R22" s="100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q23" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="101"/>
-    </row>
-    <row r="24" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="R24" s="102"/>
-    </row>
-    <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="115" t="s">
+      <c r="I25" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="67"/>
+    </row>
+    <row r="27" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="113" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="P25" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="P26" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="118"/>
-    </row>
-    <row r="27" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>52</v>
-      </c>
       <c r="I27" s="31" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="J27" s="31"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="P27" s="45" t="s">
-        <v>163</v>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" s="44" t="s">
+        <v>119</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="R27" s="46" t="s">
-        <v>155</v>
+        <v>110</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:N26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="G19:G21"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="R19:R21"/>
@@ -4600,6 +4102,29 @@
     <mergeCell ref="K19:N21"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="I19:I21"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -4621,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205AE43-54AF-4EA5-AE40-EC179C4B8155}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,70 +4175,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="87" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Consentimiento</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="88" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion del consentimiento</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4867,7 +4392,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -4900,7 +4425,7 @@
         <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="20"/>
@@ -4909,10 +4434,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -4942,7 +4467,7 @@
         <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="20"/>
@@ -4951,11 +4476,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -4970,10 +4495,10 @@
     </row>
     <row r="12" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C12" s="28" t="str">
         <f>+A8</f>
@@ -4982,44 +4507,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62" t="s">
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62" t="s">
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62" t="s">
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="63"/>
+      <c r="R14" s="120"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -5032,12 +4557,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -5052,285 +4577,308 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="80" t="s">
+      <c r="A16" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="97"/>
+      <c r="C16" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="P16" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="R16" s="86" t="s">
-        <v>203</v>
+      <c r="I16" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="114"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" s="121" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="P17" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="87"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="122"/>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="P18" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q18" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="88"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="123"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="50" t="s">
+      <c r="A19" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
+      <c r="I19" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="83"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="32" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="R19" s="100" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="R19" s="49" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="58"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="79"/>
       <c r="O20" s="32" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="101"/>
+        <v>80</v>
+      </c>
+      <c r="R20" s="50"/>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="61"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="32" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="R21" s="102"/>
+        <v>169</v>
+      </c>
+      <c r="R21" s="51"/>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="115" t="s">
+      <c r="A22" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="113" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="113"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="117" t="s">
-        <v>218</v>
+      <c r="I22" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="66" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="P23" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="118"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="67"/>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
+      <c r="A24" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="43" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="P24" s="45" t="s">
-        <v>232</v>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="44" t="s">
+        <v>188</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="R24" s="46" t="s">
-        <v>225</v>
+        <v>180</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="K24:N24"/>
@@ -5347,29 +4895,6 @@
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:F21"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F71E723C-45DC-45F7-B5B1-27B509D7A5BA}"/>
@@ -5386,21 +4911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -5544,24 +5054,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5579,6 +5087,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
